--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -21,28 +21,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
-    <x:t>A</x:t>
+    <x:t>.Sort("Column2, Column3 Desc, Column1 ASC") = Sort table Top to Bottom, Col 2 Asc, Col 3 Desc, Col 1 Asc, Ignore Blanks, Ignore Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column3</x:t>
   </x:si>
   <x:si>
     <x:t>B</x:t>
   </x:si>
   <x:si>
-    <x:t>a</x:t>
+    <x:t>A</x:t>
   </x:si>
   <x:si>
     <x:t>b</x:t>
   </x:si>
   <x:si>
-    <x:t>Column3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.Sort("Column2, Column3 Desc, Column1 ASC") = Sort table Top to Bottom, Col 2 Asc, Col 3 Desc, Col 1 Asc, Ignore Blanks, Ignore Case</x:t>
+    <x:t>a</x:t>
   </x:si>
   <x:si>
     <x:t>.Sort(XLSortOrientation.LeftToRight) = Sort Range Left to Right, Ascendingly, Ignore Blanks, Ignore Case</x:t>
@@ -60,10 +60,10 @@
     <x:t>.Sort("2, 1 DESC", true) = Sort Range Top to Bottom, Col 2 Asc, Col 1 Desc, Ignore Blanks, Match Case</x:t>
   </x:si>
   <x:si>
-    <x:t>c</x:t>
+    <x:t>.Sort(XLSortOrder.Descending, true) = Sort Range Top to Bottom, Descendingly, Ignore Blanks, Match Case</x:t>
   </x:si>
   <x:si>
-    <x:t>.Sort(XLSortOrder.Descending, true) = Sort Range Top to Bottom, Descendingly, Ignore Blanks, Match Case</x:t>
+    <x:t>c</x:t>
   </x:si>
   <x:si>
     <x:t>.Sort() = Sort Range Top to Bottom, Ascendingly, Ignore Blanks, Ignore Case</x:t>
@@ -108,14 +108,8 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFDEB887"/>
-        <x:bgColor rgb="FFDEB887"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF1493"/>
-        <x:bgColor rgb="FFFF1493"/>
+        <x:fgColor rgb="FF1E90FF"/>
+        <x:bgColor rgb="FF1E90FF"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -126,8 +120,14 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFE9967A"/>
-        <x:bgColor rgb="FFE9967A"/>
+        <x:fgColor rgb="FFA9A9A9"/>
+        <x:bgColor rgb="FFA9A9A9"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFDEB887"/>
+        <x:bgColor rgb="FFDEB887"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -138,14 +138,14 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA9A9A9"/>
-        <x:bgColor rgb="FFA9A9A9"/>
+        <x:fgColor rgb="FFE9967A"/>
+        <x:bgColor rgb="FFE9967A"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF1E90FF"/>
-        <x:bgColor rgb="FF1E90FF"/>
+        <x:fgColor rgb="FFFF1493"/>
+        <x:bgColor rgb="FFFF1493"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -172,6 +172,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -194,9 +197,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -205,6 +205,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -234,10 +238,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -559,8 +559,8 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
-        <x:v>7</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
       <x:c r="C1" s="0" t="s"/>
@@ -578,166 +578,166 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="C4" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="8" t="s">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s"/>
-      <x:c r="F5" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="7" t="s">
-        <x:v>2</x:v>
+      <x:c r="F5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="5" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G6" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H6" s="6" t="s">
-        <x:v>0</x:v>
+      <x:c r="A6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F7" s="5" t="s"/>
-      <x:c r="G7" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H7" s="5" t="s">
-        <x:v>0</x:v>
+      <x:c r="A7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="8" t="s"/>
+      <x:c r="G7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="5" t="s"/>
-      <x:c r="B8" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="8" t="s"/>
+      <x:c r="B8" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G8" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C9" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F9" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G9" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="s"/>
+      <x:c r="A9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="9" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B10" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G10" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H10" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="6" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s"/>
-      <x:c r="F11" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s"/>
-      <x:c r="H11" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A11" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="s"/>
+      <x:c r="F11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -763,18 +763,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H15"/>
+  <x:dimension ref="A1:H10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="4" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="3" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
@@ -796,194 +795,144 @@
       <x:c r="H2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3" s="5" t="s"/>
-      <x:c r="F3" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G3" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s"/>
+      <x:c r="F3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="1" t="s"/>
+      <x:c r="A4" s="2" t="s"/>
       <x:c r="B4" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D4" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F4" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="9" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s"/>
-      <x:c r="C5" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E5" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G5" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s"/>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="9" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B8" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A8" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H8" s="5" t="s"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C9" s="8" t="s">
-        <x:v>0</x:v>
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F9" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s"/>
-      <x:c r="H9" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="8" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="A10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s"/>
-      <x:c r="E10" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
-      <x:c r="F11" s="0" t="s"/>
-      <x:c r="G11" s="0" t="s"/>
-      <x:c r="H11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
-      <x:c r="F12" s="0" t="s"/>
-      <x:c r="G12" s="0" t="s"/>
-      <x:c r="H12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s"/>
-      <x:c r="G13" s="0" t="s"/>
-      <x:c r="H13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s"/>
-      <x:c r="G14" s="0" t="s"/>
-      <x:c r="H14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s"/>
-      <x:c r="G15" s="0" t="s"/>
-      <x:c r="H15" s="0" t="s"/>
+      <x:c r="E10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s"/>
+      <x:c r="G10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1017,7 +966,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
@@ -1027,7 +976,7 @@
       <x:c r="H1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="9" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s"/>
@@ -1037,7 +986,7 @@
       <x:c r="H2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="9" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s"/>
@@ -1055,148 +1004,148 @@
       <x:c r="H4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="C5" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s"/>
-      <x:c r="G5" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H5" s="5" t="s">
-        <x:v>0</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="C5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s"/>
+      <x:c r="G5" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s"/>
-      <x:c r="F6" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G6" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H6" s="6" t="s">
-        <x:v>0</x:v>
+      <x:c r="F6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="A8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="5" t="s"/>
-      <x:c r="B9" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C9" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="7" t="s">
-        <x:v>2</x:v>
+      <x:c r="A9" s="8" t="s"/>
+      <x:c r="B9" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H9" s="5" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C10" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="A10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="s"/>
-      <x:c r="H11" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s"/>
-      <x:c r="F12" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G12" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H12" s="3" t="s"/>
+      <x:c r="A12" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="9" t="s"/>
+      <x:c r="F12" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G12" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H12" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1230,7 +1179,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
@@ -1248,147 +1197,147 @@
       <x:c r="H2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G3" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H3" s="3" t="s"/>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G3" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s"/>
       <x:c r="F4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G5" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H5" s="6" t="s">
-        <x:v>0</x:v>
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F6" s="5" t="s"/>
-      <x:c r="G6" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H6" s="5" t="s">
-        <x:v>0</x:v>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s"/>
+      <x:c r="G6" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="5" t="s"/>
-      <x:c r="B7" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G7" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="7" t="s">
-        <x:v>2</x:v>
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="A8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H9" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s"/>
-      <x:c r="F10" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="s"/>
-      <x:c r="H10" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s"/>
+      <x:c r="F10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1423,8 +1372,8 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="9" t="s">
-        <x:v>14</x:v>
+      <x:c r="A1" s="1" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s"/>
     </x:row>
@@ -1433,60 +1382,60 @@
       <x:c r="D2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>13</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="9" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
-        <x:v>1</x:v>
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="7" t="s"/>
-      <x:c r="D6" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="D6" s="3" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="5" t="s"/>
+      <x:c r="A7" s="8" t="s"/>
       <x:c r="D7" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>2</x:v>
+      <x:c r="A8" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D9" s="5" t="s"/>
+      <x:c r="A9" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s"/>
+      <x:c r="A10" s="9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1520,7 +1469,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="9" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s"/>
@@ -1538,147 +1487,147 @@
       <x:c r="H2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G3" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H3" s="6" t="s">
-        <x:v>0</x:v>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="7" t="s">
-        <x:v>2</x:v>
+      <x:c r="F4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G5" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="8" t="s">
-        <x:v>3</x:v>
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>2</x:v>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="5" t="s"/>
-      <x:c r="B7" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>0</x:v>
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s"/>
+      <x:c r="A8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="9" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s"/>
-      <x:c r="H9" s="1" t="s">
-        <x:v>0</x:v>
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s"/>
-      <x:c r="F10" s="5" t="s"/>
-      <x:c r="G10" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H10" s="5" t="s">
-        <x:v>0</x:v>
+      <x:c r="A10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s"/>
+      <x:c r="F10" s="8" t="s"/>
+      <x:c r="G10" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="8" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -552,10 +552,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
@@ -767,10 +766,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
@@ -959,10 +955,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
@@ -1172,10 +1167,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
@@ -1365,10 +1359,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="5" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="4" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
@@ -1462,10 +1455,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -168,7 +168,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -199,8 +199,38 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -239,6 +269,46 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -248,7 +318,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F3:H11" totalsRowShown="0">
   <x:autoFilter ref="F3:H11"/>
   <x:tableColumns count="3">
@@ -558,184 +628,184 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
+      <x:c r="B1" s="11" t="s"/>
+      <x:c r="C1" s="11" t="s"/>
+      <x:c r="F1" s="11" t="s"/>
+      <x:c r="G1" s="11" t="s"/>
+      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="A2" s="11" t="s"/>
+      <x:c r="B2" s="11" t="s"/>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="11" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="F3" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="G3" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="H3" s="11" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="C4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
+      <x:c r="A4" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="12" t="s"/>
+      <x:c r="C4" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s"/>
-      <x:c r="F5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="5" t="s">
+      <x:c r="A5" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="14" t="s"/>
+      <x:c r="F5" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="15" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="A6" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F7" s="8" t="s"/>
-      <x:c r="G7" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H7" s="8" t="s">
+      <x:c r="A7" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="18" t="s"/>
+      <x:c r="G7" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="8" t="s"/>
-      <x:c r="B8" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="4" t="s"/>
+      <x:c r="A8" s="18" t="s"/>
+      <x:c r="B8" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F8" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="14" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
+      <x:c r="A9" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F9" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H9" s="9" t="s"/>
+      <x:c r="F9" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="19" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B10" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G10" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H10" s="6" t="s">
+      <x:c r="A10" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B11" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="9" t="s"/>
-      <x:c r="F11" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s">
+      <x:c r="A11" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="19" t="s"/>
+      <x:c r="F11" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="12" t="s"/>
+      <x:c r="H11" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -752,7 +822,7 @@
     <x:firstFooter/>
   </x:headerFooter>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId10"/>
+    <x:tablePart r:id="rId1"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -769,164 +839,164 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="D1" s="0" t="s"/>
-      <x:c r="E1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
+      <x:c r="B1" s="11" t="s"/>
+      <x:c r="C1" s="11" t="s"/>
+      <x:c r="D1" s="11" t="s"/>
+      <x:c r="E1" s="11" t="s"/>
+      <x:c r="F1" s="11" t="s"/>
+      <x:c r="G1" s="11" t="s"/>
+      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="A2" s="11" t="s"/>
+      <x:c r="B2" s="11" t="s"/>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
+      <x:c r="E2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E3" s="8" t="s"/>
-      <x:c r="F3" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="9" t="s">
+      <x:c r="A3" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="18" t="s"/>
+      <x:c r="F3" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="9" t="s">
+      <x:c r="A4" s="12" t="s"/>
+      <x:c r="B4" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="19" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
+      <x:c r="A5" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="14" t="s"/>
+      <x:c r="C5" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G5" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="9" t="s"/>
+      <x:c r="G5" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="19" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H8" s="8" t="s"/>
+      <x:c r="A8" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H8" s="18" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="8" t="s">
+      <x:c r="A9" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="12" t="s"/>
+      <x:c r="H9" s="18" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
+      <x:c r="A10" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="4" t="s"/>
-      <x:c r="E10" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="9" t="s"/>
-      <x:c r="G10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H10" s="8" t="s">
+      <x:c r="D10" s="14" t="s"/>
+      <x:c r="E10" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="19" t="s"/>
+      <x:c r="G10" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -961,186 +1031,186 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
+      <x:c r="B1" s="11" t="s"/>
+      <x:c r="C1" s="11" t="s"/>
+      <x:c r="F1" s="11" t="s"/>
+      <x:c r="G1" s="11" t="s"/>
+      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="B2" s="11" t="s"/>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
-      <x:c r="G3" s="0" t="s"/>
-      <x:c r="H3" s="0" t="s"/>
+      <x:c r="B3" s="11" t="s"/>
+      <x:c r="C3" s="11" t="s"/>
+      <x:c r="F3" s="11" t="s"/>
+      <x:c r="G3" s="11" t="s"/>
+      <x:c r="H3" s="11" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
-      <x:c r="G4" s="0" t="s"/>
-      <x:c r="H4" s="0" t="s"/>
+      <x:c r="A4" s="11" t="s"/>
+      <x:c r="B4" s="11" t="s"/>
+      <x:c r="C4" s="11" t="s"/>
+      <x:c r="F4" s="11" t="s"/>
+      <x:c r="G4" s="11" t="s"/>
+      <x:c r="H4" s="11" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s"/>
-      <x:c r="G5" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="8" t="s">
+      <x:c r="A5" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="12" t="s"/>
+      <x:c r="C5" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="18" t="s"/>
+      <x:c r="G5" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s"/>
-      <x:c r="F6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="A6" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="14" t="s"/>
+      <x:c r="F6" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="A7" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
+      <x:c r="A8" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="8" t="s"/>
-      <x:c r="B9" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G9" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H9" s="5" t="s">
+      <x:c r="A9" s="18" t="s"/>
+      <x:c r="B9" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G9" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H9" s="15" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
+      <x:c r="A10" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F10" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G10" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="s"/>
+      <x:c r="F10" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="14" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B11" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s">
+      <x:c r="A11" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F11" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="12" t="s"/>
+      <x:c r="H11" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C12" s="9" t="s"/>
-      <x:c r="F12" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G12" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H12" s="9" t="s"/>
+      <x:c r="A12" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="19" t="s"/>
+      <x:c r="F12" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G12" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H12" s="19" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1173,164 +1243,164 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
+      <x:c r="B1" s="11" t="s"/>
+      <x:c r="C1" s="11" t="s"/>
+      <x:c r="F1" s="11" t="s"/>
+      <x:c r="G1" s="11" t="s"/>
+      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="A2" s="11" t="s"/>
+      <x:c r="B2" s="11" t="s"/>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G3" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="9" t="s"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="12" t="s"/>
+      <x:c r="C3" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="19" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s"/>
+      <x:c r="A4" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="14" t="s"/>
+      <x:c r="F4" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="14" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="7" t="s">
+      <x:c r="A5" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="8" t="s"/>
-      <x:c r="G6" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="s">
+      <x:c r="A6" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="18" t="s"/>
+      <x:c r="G6" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="B7" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H7" s="5" t="s">
+      <x:c r="A7" s="18" t="s"/>
+      <x:c r="B7" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H7" s="15" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
+      <x:c r="A8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
+      <x:c r="F8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H9" s="6" t="s">
+      <x:c r="A9" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s"/>
-      <x:c r="F10" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s">
+      <x:c r="A10" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="19" t="s"/>
+      <x:c r="F10" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="12" t="s"/>
+      <x:c r="H10" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1365,70 +1435,70 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s"/>
+      <x:c r="D1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
+      <x:c r="A2" s="11" t="s"/>
+      <x:c r="D2" s="11" t="s"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="9" t="s">
+      <x:c r="A3" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
+      <x:c r="A4" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s">
+      <x:c r="A5" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="17" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="D6" s="3" t="s">
+      <x:c r="A6" s="15" t="s"/>
+      <x:c r="D6" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="D7" s="4" t="s">
+      <x:c r="A7" s="18" t="s"/>
+      <x:c r="D7" s="14" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="3" t="s">
+      <x:c r="A8" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="6" t="s">
+      <x:c r="D8" s="16" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D9" s="8" t="s"/>
+      <x:c r="A9" s="17" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="18" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="9" t="s">
+      <x:c r="A10" s="19" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s"/>
+      <x:c r="D10" s="15" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1461,164 +1531,164 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
+      <x:c r="B1" s="11" t="s"/>
+      <x:c r="C1" s="11" t="s"/>
+      <x:c r="F1" s="11" t="s"/>
+      <x:c r="G1" s="11" t="s"/>
+      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="A2" s="11" t="s"/>
+      <x:c r="B2" s="11" t="s"/>
+      <x:c r="C2" s="11" t="s"/>
+      <x:c r="F2" s="11" t="s"/>
+      <x:c r="G2" s="11" t="s"/>
+      <x:c r="H2" s="11" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="s">
+      <x:c r="A3" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="12" t="s"/>
+      <x:c r="C3" s="12" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="5" t="s">
+      <x:c r="A4" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="14" t="s"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="15" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
+      <x:c r="A5" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="4" t="s"/>
+      <x:c r="A6" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G6" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="14" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="B7" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="A7" s="18" t="s"/>
+      <x:c r="B7" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="18" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
+      <x:c r="A8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="9" t="s"/>
+      <x:c r="F8" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="19" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s">
+      <x:c r="A9" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="12" t="s"/>
+      <x:c r="H9" s="12" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s"/>
-      <x:c r="F10" s="8" t="s"/>
-      <x:c r="G10" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="8" t="s">
+      <x:c r="A10" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="19" t="s"/>
+      <x:c r="F10" s="18" t="s"/>
+      <x:c r="G10" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -168,7 +168,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -199,38 +199,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -269,46 +239,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -628,184 +558,175 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="11" t="s"/>
-      <x:c r="C1" s="11" t="s"/>
-      <x:c r="F1" s="11" t="s"/>
-      <x:c r="G1" s="11" t="s"/>
-      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="11" t="s"/>
-      <x:c r="B2" s="11" t="s"/>
-      <x:c r="C2" s="11" t="s"/>
-      <x:c r="F2" s="11" t="s"/>
-      <x:c r="G2" s="11" t="s"/>
-      <x:c r="H2" s="11" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="11" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="11" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="11" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F3" s="11" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G3" s="11" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="H3" s="11" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="12" t="s"/>
-      <x:c r="C4" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F4" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="13" t="s">
+      <x:c r="A4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="14" t="s"/>
-      <x:c r="F5" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="15" t="s">
+      <x:c r="A5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s"/>
+      <x:c r="F5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F6" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="17" t="s">
+      <x:c r="A6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F7" s="18" t="s"/>
-      <x:c r="G7" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H7" s="18" t="s">
+      <x:c r="A7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="8" t="s"/>
+      <x:c r="G7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="18" t="s"/>
-      <x:c r="B8" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F8" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="14" t="s"/>
+      <x:c r="A8" s="8" t="s"/>
+      <x:c r="B8" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s">
+      <x:c r="A9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F9" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H9" s="19" t="s"/>
+      <x:c r="F9" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="9" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B10" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G10" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H10" s="16" t="s">
+      <x:c r="A10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B11" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="19" t="s"/>
-      <x:c r="F11" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="12" t="s"/>
-      <x:c r="H11" s="12" t="s">
+      <x:c r="A11" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="s"/>
+      <x:c r="F11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -839,164 +760,148 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="11" t="s"/>
-      <x:c r="C1" s="11" t="s"/>
-      <x:c r="D1" s="11" t="s"/>
-      <x:c r="E1" s="11" t="s"/>
-      <x:c r="F1" s="11" t="s"/>
-      <x:c r="G1" s="11" t="s"/>
-      <x:c r="H1" s="11" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="11" t="s"/>
-      <x:c r="B2" s="11" t="s"/>
-      <x:c r="C2" s="11" t="s"/>
-      <x:c r="D2" s="11" t="s"/>
-      <x:c r="E2" s="11" t="s"/>
-      <x:c r="F2" s="11" t="s"/>
-      <x:c r="G2" s="11" t="s"/>
-      <x:c r="H2" s="11" t="s"/>
-    </x:row>
+    </x:row>
+    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E3" s="18" t="s"/>
-      <x:c r="F3" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G3" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="19" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s"/>
+      <x:c r="F3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="12" t="s"/>
-      <x:c r="B4" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F4" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="19" t="s">
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="14" t="s"/>
-      <x:c r="C5" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D5" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="13" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G5" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="19" t="s"/>
+      <x:c r="G5" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="9" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H8" s="18" t="s"/>
+      <x:c r="A8" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="12" t="s"/>
-      <x:c r="H9" s="18" t="s">
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="13" t="s">
+      <x:c r="A10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="14" t="s"/>
-      <x:c r="E10" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="19" t="s"/>
-      <x:c r="G10" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H10" s="18" t="s">
+      <x:c r="D10" s="4" t="s"/>
+      <x:c r="E10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s"/>
+      <x:c r="G10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1031,186 +936,171 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B1" s="11" t="s"/>
-      <x:c r="C1" s="11" t="s"/>
-      <x:c r="F1" s="11" t="s"/>
-      <x:c r="G1" s="11" t="s"/>
-      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="10" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="11" t="s"/>
-      <x:c r="C2" s="11" t="s"/>
-      <x:c r="F2" s="11" t="s"/>
-      <x:c r="G2" s="11" t="s"/>
-      <x:c r="H2" s="11" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="10" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B3" s="11" t="s"/>
-      <x:c r="C3" s="11" t="s"/>
-      <x:c r="F3" s="11" t="s"/>
-      <x:c r="G3" s="11" t="s"/>
-      <x:c r="H3" s="11" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="11" t="s"/>
-      <x:c r="B4" s="11" t="s"/>
-      <x:c r="C4" s="11" t="s"/>
-      <x:c r="F4" s="11" t="s"/>
-      <x:c r="G4" s="11" t="s"/>
-      <x:c r="H4" s="11" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="12" t="s"/>
-      <x:c r="C5" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="18" t="s"/>
-      <x:c r="G5" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="18" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="C5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s"/>
+      <x:c r="G5" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="14" t="s"/>
-      <x:c r="F6" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="17" t="s">
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s"/>
+      <x:c r="F6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="16" t="s">
+      <x:c r="A7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="13" t="s">
+      <x:c r="A8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="18" t="s"/>
-      <x:c r="B9" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G9" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H9" s="15" t="s">
+      <x:c r="A9" s="8" t="s"/>
+      <x:c r="B9" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H9" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C10" s="13" t="s">
+      <x:c r="A10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F10" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G10" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="14" t="s"/>
+      <x:c r="F10" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="4" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B11" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F11" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="12" t="s"/>
-      <x:c r="H11" s="12" t="s">
+      <x:c r="A11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C12" s="19" t="s"/>
-      <x:c r="F12" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G12" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H12" s="19" t="s"/>
+      <x:c r="A12" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="9" t="s"/>
+      <x:c r="F12" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G12" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H12" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1243,164 +1133,155 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B1" s="11" t="s"/>
-      <x:c r="C1" s="11" t="s"/>
-      <x:c r="F1" s="11" t="s"/>
-      <x:c r="G1" s="11" t="s"/>
-      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="11" t="s"/>
-      <x:c r="B2" s="11" t="s"/>
-      <x:c r="C2" s="11" t="s"/>
-      <x:c r="F2" s="11" t="s"/>
-      <x:c r="G2" s="11" t="s"/>
-      <x:c r="H2" s="11" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="12" t="s"/>
-      <x:c r="C3" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="19" t="s"/>
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G3" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="9" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="14" t="s"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="14" t="s"/>
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="F4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G5" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="17" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="18" t="s"/>
-      <x:c r="G6" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="18" t="s">
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="8" t="s"/>
+      <x:c r="G6" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="18" t="s"/>
-      <x:c r="B7" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G7" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H7" s="15" t="s">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="13" t="s">
+      <x:c r="A8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="13" t="s">
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H9" s="16" t="s">
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="19" t="s"/>
-      <x:c r="F10" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="12" t="s"/>
-      <x:c r="H10" s="12" t="s">
+      <x:c r="A10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s"/>
+      <x:c r="F10" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1435,70 +1316,69 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="11" t="s"/>
-      <x:c r="D2" s="11" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="19" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="12" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="17" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="15" t="s"/>
-      <x:c r="D6" s="13" t="s">
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="D6" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="18" t="s"/>
-      <x:c r="D7" s="14" t="s">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="D7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="13" t="s">
+      <x:c r="A8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="16" t="s">
+      <x:c r="D8" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="17" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D9" s="18" t="s"/>
+      <x:c r="A9" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="19" t="s">
+      <x:c r="A10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="15" t="s"/>
+      <x:c r="D10" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1531,164 +1411,155 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B1" s="11" t="s"/>
-      <x:c r="C1" s="11" t="s"/>
-      <x:c r="F1" s="11" t="s"/>
-      <x:c r="G1" s="11" t="s"/>
-      <x:c r="H1" s="11" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="11" t="s"/>
-      <x:c r="B2" s="11" t="s"/>
-      <x:c r="C2" s="11" t="s"/>
-      <x:c r="F2" s="11" t="s"/>
-      <x:c r="G2" s="11" t="s"/>
-      <x:c r="H2" s="11" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="12" t="s"/>
-      <x:c r="C3" s="12" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="17" t="s">
+      <x:c r="A3" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="14" t="s"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="15" t="s">
+      <x:c r="A4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="F4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="13" t="s">
+      <x:c r="A5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G6" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="14" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="4" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="18" t="s"/>
-      <x:c r="B7" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="16" t="s">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="13" t="s">
+      <x:c r="A8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="19" t="s"/>
+      <x:c r="F8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="9" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="12" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="12" t="s"/>
-      <x:c r="H9" s="12" t="s">
+      <x:c r="A9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="19" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="19" t="s"/>
-      <x:c r="F10" s="18" t="s"/>
-      <x:c r="G10" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="18" t="s">
+      <x:c r="A10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="9" t="s"/>
+      <x:c r="F10" s="8" t="s"/>
+      <x:c r="G10" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -734,14 +734,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="1">
     <x:tablePart r:id="rId1"/>
   </x:tableParts>
@@ -909,14 +902,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1106,14 +1092,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1289,14 +1268,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1384,14 +1356,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1567,14 +1532,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -45,7 +45,7 @@
     <x:t>a</x:t>
   </x:si>
   <x:si>
-    <x:t>.Sort(XLSortOrientation.LeftToRight) = Sort Range Left to Right, Ascendingly, Ignore Blanks, Ignore Case</x:t>
+    <x:t>.SortLeftToRight() = Sort Range Left to Right, Ascendingly, Ignore Blanks, Ignore Case</x:t>
   </x:si>
   <x:si>
     <x:t>.SortColumns.Add(1, XLSortOrder.Ascending, false, true) = Sort Col 1 Asc, Match Blanks, Match Case</x:t>
@@ -57,7 +57,7 @@
     <x:t>.Sort() = Sort range using the parameters defined in SortColumns</x:t>
   </x:si>
   <x:si>
-    <x:t>.Sort("2, 1 DESC", true) = Sort Range Top to Bottom, Col 2 Asc, Col 1 Desc, Ignore Blanks, Match Case</x:t>
+    <x:t>.Sort("2, 1 DESC", XLSortOrder.Ascending, true) = Sort Range Top to Bottom, Col 2 Asc, Col 1 Desc, Ignore Blanks, Match Case</x:t>
   </x:si>
   <x:si>
     <x:t>.Sort(XLSortOrder.Descending, true) = Sort Range Top to Bottom, Descendingly, Ignore Blanks, Match Case</x:t>
@@ -746,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H10"/>
+  <x:dimension ref="A1:H15"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -897,6 +897,26 @@
       <x:c r="H10" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -736,7 +736,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
+    <x:tablePart r:id="rId10"/>
   </x:tableParts>
 </x:worksheet>
 </file>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -76,7 +76,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -86,6 +86,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -583,6 +583,8 @@
       <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -601,6 +603,8 @@
       <x:c r="C4" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -619,6 +623,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -639,6 +645,8 @@
       <x:c r="C6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -659,6 +667,8 @@
       <x:c r="C7" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="8" t="s"/>
       <x:c r="G7" s="8" t="s">
         <x:v>7</x:v>
@@ -675,6 +685,8 @@
       <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -693,6 +705,8 @@
       <x:c r="C9" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -711,6 +725,8 @@
       <x:c r="C10" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -979,6 +995,8 @@
       <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="8" t="s"/>
       <x:c r="G5" s="8" t="s">
         <x:v>7</x:v>
@@ -995,6 +1013,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1015,6 +1035,8 @@
       <x:c r="C7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1035,6 +1057,8 @@
       <x:c r="C8" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1053,6 +1077,8 @@
       <x:c r="C9" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1073,6 +1099,8 @@
       <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1091,6 +1119,8 @@
       <x:c r="C11" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1107,6 +1137,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1155,6 +1187,8 @@
       <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1171,6 +1205,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1189,6 +1225,8 @@
       <x:c r="C5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1209,6 +1247,8 @@
       <x:c r="C6" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="8" t="s"/>
       <x:c r="G6" s="8" t="s">
         <x:v>7</x:v>
@@ -1225,6 +1265,8 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1245,6 +1287,8 @@
       <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1265,6 +1309,8 @@
       <x:c r="C9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1283,6 +1329,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1327,6 +1375,8 @@
       <x:c r="A3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -1335,6 +1385,8 @@
       <x:c r="A4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1343,18 +1395,24 @@
       <x:c r="A5" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="5" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1363,6 +1421,8 @@
       <x:c r="A8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1371,12 +1431,16 @@
       <x:c r="A9" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="5" t="s"/>
     </x:row>
   </x:sheetData>
@@ -1419,6 +1483,8 @@
       <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1437,6 +1503,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1457,6 +1525,8 @@
       <x:c r="C5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1477,6 +1547,8 @@
       <x:c r="C6" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1493,6 +1565,8 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1513,6 +1587,8 @@
       <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1531,6 +1607,8 @@
       <x:c r="C9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1547,6 +1625,8 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="8" t="s"/>
       <x:c r="G10" s="8" t="s">
         <x:v>7</x:v>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -583,8 +583,6 @@
       <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -603,8 +601,6 @@
       <x:c r="C4" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -623,8 +619,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -645,8 +639,6 @@
       <x:c r="C6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -667,8 +659,6 @@
       <x:c r="C7" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="8" t="s"/>
       <x:c r="G7" s="8" t="s">
         <x:v>7</x:v>
@@ -685,8 +675,6 @@
       <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -705,8 +693,6 @@
       <x:c r="C9" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -725,8 +711,6 @@
       <x:c r="C10" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -995,8 +979,6 @@
       <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="8" t="s"/>
       <x:c r="G5" s="8" t="s">
         <x:v>7</x:v>
@@ -1013,8 +995,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1035,8 +1015,6 @@
       <x:c r="C7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1057,8 +1035,6 @@
       <x:c r="C8" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1077,8 +1053,6 @@
       <x:c r="C9" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1099,8 +1073,6 @@
       <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1119,8 +1091,6 @@
       <x:c r="C11" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1137,8 +1107,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="9" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1187,8 +1155,6 @@
       <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1205,8 +1171,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1225,8 +1189,6 @@
       <x:c r="C5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1247,8 +1209,6 @@
       <x:c r="C6" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="8" t="s"/>
       <x:c r="G6" s="8" t="s">
         <x:v>7</x:v>
@@ -1265,8 +1225,6 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1287,8 +1245,6 @@
       <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1309,8 +1265,6 @@
       <x:c r="C9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1329,8 +1283,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1375,8 +1327,6 @@
       <x:c r="A3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -1385,8 +1335,6 @@
       <x:c r="A4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1395,24 +1343,18 @@
       <x:c r="A5" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="8" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1421,8 +1363,6 @@
       <x:c r="A8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1431,16 +1371,12 @@
       <x:c r="A9" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="5" t="s"/>
     </x:row>
   </x:sheetData>
@@ -1483,8 +1419,6 @@
       <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1503,8 +1437,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1525,8 +1457,6 @@
       <x:c r="C5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1547,8 +1477,6 @@
       <x:c r="C6" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1565,8 +1493,6 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1587,8 +1513,6 @@
       <x:c r="C8" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1607,8 +1531,6 @@
       <x:c r="C9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1625,8 +1547,6 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="8" t="s"/>
       <x:c r="G10" s="8" t="s">
         <x:v>7</x:v>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -557,7 +557,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -755,7 +755,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H15"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -941,7 +941,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H12"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -1131,7 +1131,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -1307,7 +1307,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:D10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -1395,7 +1395,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -109,14 +109,20 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF1E90FF"/>
+        <x:bgColor rgb="FF1E90FF"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="FF90EE90"/>
         <x:bgColor rgb="FF90EE90"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF1E90FF"/>
-        <x:bgColor rgb="FF1E90FF"/>
+        <x:fgColor rgb="FFA9A9A9"/>
+        <x:bgColor rgb="FFA9A9A9"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -127,20 +133,14 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFA9A9A9"/>
-        <x:bgColor rgb="FFA9A9A9"/>
+        <x:fgColor rgb="FFCD5C5C"/>
+        <x:bgColor rgb="FFCD5C5C"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFDEB887"/>
         <x:bgColor rgb="FFDEB887"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFCD5C5C"/>
-        <x:bgColor rgb="FFCD5C5C"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -594,69 +594,69 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="C4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
+      <x:c r="A4" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="C4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="s"/>
-      <x:c r="F5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="5" t="s">
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s"/>
+      <x:c r="F5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="A6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
+      <x:c r="A7" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s"/>
@@ -675,22 +675,22 @@
       <x:c r="C8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="4" t="s"/>
+      <x:c r="F8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="5" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
+      <x:c r="A9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
@@ -702,22 +702,22 @@
       <x:c r="H9" s="9" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B10" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G10" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H10" s="6" t="s">
+      <x:c r="A10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -729,11 +729,11 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s"/>
-      <x:c r="F11" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s">
+      <x:c r="F11" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="3" t="s"/>
+      <x:c r="H11" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -766,23 +766,23 @@
     </x:row>
     <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="5" t="s">
+      <x:c r="A3" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s"/>
-      <x:c r="F3" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="s">
+      <x:c r="F3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H3" s="9" t="s">
@@ -790,23 +790,23 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="5" t="s">
+      <x:c r="A4" s="3" t="s"/>
+      <x:c r="B4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="7" t="s">
+      <x:c r="F4" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H4" s="9" t="s">
@@ -814,91 +814,91 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D5" s="5" t="s">
+      <x:c r="A5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s"/>
+      <x:c r="C5" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G5" s="7" t="s">
+      <x:c r="G5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H5" s="9" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
+      <x:c r="A8" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F8" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G8" s="2" t="s">
+      <x:c r="G8" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
+      <x:c r="A9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G9" s="2" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
       <x:c r="H9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
+      <x:c r="A10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="4" t="s"/>
-      <x:c r="E10" s="6" t="s">
+      <x:c r="D10" s="5" t="s"/>
+      <x:c r="E10" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F10" s="9" t="s"/>
-      <x:c r="G10" s="2" t="s">
+      <x:c r="G10" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="H10" s="8" t="s">
@@ -972,11 +972,11 @@
       <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="A5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s"/>
@@ -988,60 +988,60 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s"/>
-      <x:c r="F6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="A6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s"/>
+      <x:c r="F6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="A7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
+      <x:c r="A8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -1053,49 +1053,49 @@
       <x:c r="C9" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G9" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H9" s="5" t="s">
+      <x:c r="F9" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H9" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
+      <x:c r="A10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F10" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G10" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="s"/>
+      <x:c r="F10" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="5" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B11" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s">
+      <x:c r="A11" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F11" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="3" t="s"/>
+      <x:c r="H11" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1148,11 +1148,11 @@
       <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="C3" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F3" s="9" t="s">
@@ -1164,49 +1164,49 @@
       <x:c r="H3" s="9" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s"/>
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s"/>
+      <x:c r="F4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="7" t="s">
+      <x:c r="A5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s"/>
@@ -1225,53 +1225,53 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G7" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H7" s="5" t="s">
+      <x:c r="F7" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G7" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H7" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
+      <x:c r="A8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
+      <x:c r="F8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H9" s="6" t="s">
+      <x:c r="A9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1283,11 +1283,11 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="9" t="s"/>
-      <x:c r="F10" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s">
+      <x:c r="F10" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1324,7 +1324,7 @@
       <x:c r="D2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D3" s="9" t="s">
@@ -1332,43 +1332,43 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s">
+      <x:c r="A5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="D6" s="3" t="s">
+      <x:c r="A6" s="4" t="s"/>
+      <x:c r="D6" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="8" t="s"/>
-      <x:c r="D7" s="4" t="s">
+      <x:c r="D7" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="3" t="s">
+      <x:c r="A8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="6" t="s">
+      <x:c r="D8" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="7" t="s">
+      <x:c r="A9" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s"/>
@@ -1377,7 +1377,7 @@
       <x:c r="A10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s"/>
+      <x:c r="D10" s="4" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1412,78 +1412,78 @@
       <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="s">
+      <x:c r="A3" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="C3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="5" t="s">
+      <x:c r="A4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s"/>
+      <x:c r="F4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
+      <x:c r="A5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G6" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="4" t="s"/>
+      <x:c r="A6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="8" t="s"/>
@@ -1493,24 +1493,24 @@
       <x:c r="C7" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="F7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
+      <x:c r="A8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F8" s="9" t="s">
@@ -1522,20 +1522,20 @@
       <x:c r="H8" s="9" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s">
+      <x:c r="A9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -109,14 +109,20 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF90EE90"/>
+        <x:bgColor rgb="FF90EE90"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="FF1E90FF"/>
         <x:bgColor rgb="FF1E90FF"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF90EE90"/>
-        <x:bgColor rgb="FF90EE90"/>
+        <x:fgColor rgb="FF00CED1"/>
+        <x:bgColor rgb="FF00CED1"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -127,20 +133,14 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF00CED1"/>
-        <x:bgColor rgb="FF00CED1"/>
+        <x:fgColor rgb="FFDEB887"/>
+        <x:bgColor rgb="FFDEB887"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFCD5C5C"/>
         <x:bgColor rgb="FFCD5C5C"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFDEB887"/>
-        <x:bgColor rgb="FFDEB887"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -179,31 +179,31 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -212,10 +212,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -245,6 +241,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -565,7 +565,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -594,11 +594,11 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="3" t="s">
+      <x:c r="A4" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="C4" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
@@ -612,13 +612,13 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s"/>
+      <x:c r="A5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s"/>
       <x:c r="F5" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -630,13 +630,13 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="A6" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="6" t="s">
@@ -659,29 +659,29 @@
       <x:c r="C7" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F7" s="8" t="s"/>
-      <x:c r="G7" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H7" s="8" t="s">
+      <x:c r="F7" s="7" t="s"/>
+      <x:c r="G7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="8" t="s"/>
-      <x:c r="B8" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="5" t="s"/>
+      <x:c r="A8" s="7" t="s"/>
+      <x:c r="B8" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="2" t="s">
@@ -693,13 +693,13 @@
       <x:c r="C9" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F9" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H9" s="9" t="s"/>
+      <x:c r="F9" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="6" t="s">
@@ -711,29 +711,29 @@
       <x:c r="C10" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F10" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G10" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H10" s="7" t="s">
+      <x:c r="F10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G10" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H10" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B11" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C11" s="9" t="s"/>
-      <x:c r="F11" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="3" t="s"/>
-      <x:c r="H11" s="3" t="s">
+      <x:c r="A11" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="8" t="s"/>
+      <x:c r="F11" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s"/>
+      <x:c r="H11" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -760,47 +760,47 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s"/>
+      <x:c r="E3" s="7" t="s"/>
       <x:c r="F3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H3" s="9" t="s">
+      <x:c r="H3" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="3" t="s"/>
-      <x:c r="B4" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="7" t="s">
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E4" s="8" t="s">
+      <x:c r="E4" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
@@ -809,22 +809,22 @@
       <x:c r="G4" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H4" s="9" t="s">
+      <x:c r="H4" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="5" t="s"/>
-      <x:c r="C5" s="7" t="s">
+      <x:c r="A5" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E5" s="8" t="s">
+      <x:c r="E5" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
@@ -833,7 +833,7 @@
       <x:c r="G5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="9" t="s"/>
+      <x:c r="H5" s="8" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="6" t="s">
@@ -845,19 +845,19 @@
       <x:c r="C8" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F8" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H8" s="8" t="s"/>
+      <x:c r="D8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H8" s="7" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="6" t="s">
@@ -869,17 +869,17 @@
       <x:c r="C9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D9" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E9" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="8" t="s">
+      <x:c r="D9" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F9" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s"/>
+      <x:c r="H9" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -893,15 +893,15 @@
       <x:c r="C10" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s"/>
-      <x:c r="E10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F10" s="9" t="s"/>
-      <x:c r="G10" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H10" s="8" t="s">
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F10" s="8" t="s"/>
+      <x:c r="G10" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H10" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -949,19 +949,19 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s"/>
@@ -972,29 +972,29 @@
       <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s"/>
-      <x:c r="G5" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="8" t="s">
+      <x:c r="A5" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="C5" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s"/>
+      <x:c r="G5" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s"/>
+      <x:c r="A6" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s"/>
       <x:c r="F6" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1006,22 +1006,22 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="7" t="s">
+      <x:c r="A7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1046,11 +1046,11 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="8" t="s"/>
-      <x:c r="B9" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="8" t="s">
+      <x:c r="A9" s="7" t="s"/>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
@@ -1073,13 +1073,13 @@
       <x:c r="C10" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="5" t="s"/>
+      <x:c r="F10" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="3" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="6" t="s">
@@ -1091,29 +1091,29 @@
       <x:c r="C11" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F11" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G11" s="3" t="s"/>
-      <x:c r="H11" s="3" t="s">
+      <x:c r="F11" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s"/>
+      <x:c r="H11" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
-      <x:c r="A12" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C12" s="9" t="s"/>
-      <x:c r="F12" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G12" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H12" s="9" t="s"/>
+      <x:c r="A12" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="8" t="s"/>
+      <x:c r="F12" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G12" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H12" s="8" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1139,7 +1139,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
@@ -1148,45 +1148,45 @@
       <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F3" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G3" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="9" t="s"/>
+      <x:c r="A3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G3" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H3" s="8" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s"/>
-      <x:c r="F4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H4" s="5" t="s"/>
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="7" t="s">
+      <x:c r="A5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
@@ -1209,20 +1209,20 @@
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F6" s="8" t="s"/>
-      <x:c r="G6" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="8" t="s">
+      <x:c r="F6" s="7" t="s"/>
+      <x:c r="G6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="B7" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="8" t="s">
+      <x:c r="A7" s="7" t="s"/>
+      <x:c r="B7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
@@ -1265,29 +1265,29 @@
       <x:c r="C9" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G9" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H9" s="7" t="s">
+      <x:c r="F9" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H9" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s"/>
-      <x:c r="F10" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s">
+      <x:c r="A10" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="8" t="s"/>
+      <x:c r="F10" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s"/>
+      <x:c r="H10" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1315,7 +1315,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -1324,23 +1324,23 @@
       <x:c r="D2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="9" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="8" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="3" t="s">
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="7" t="s">
+      <x:c r="A5" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
@@ -1354,8 +1354,8 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="D7" s="5" t="s">
+      <x:c r="A7" s="7" t="s"/>
+      <x:c r="D7" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1363,7 +1363,7 @@
       <x:c r="A8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D8" s="7" t="s">
+      <x:c r="D8" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -1371,10 +1371,10 @@
       <x:c r="A9" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D9" s="8" t="s"/>
+      <x:c r="D9" s="7" t="s"/>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="9" t="s">
+      <x:c r="A10" s="8" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s"/>
@@ -1403,7 +1403,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="9" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
@@ -1412,11 +1412,11 @@
       <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="3" t="s">
+      <x:c r="A3" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F3" s="6" t="s">
@@ -1430,13 +1430,13 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s"/>
+      <x:c r="A4" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s"/>
       <x:c r="F4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1448,13 +1448,13 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="7" t="s">
+      <x:c r="A5" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
@@ -1477,29 +1477,29 @@
       <x:c r="C6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F6" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G6" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="5" t="s"/>
+      <x:c r="F6" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="8" t="s"/>
-      <x:c r="B7" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="7" t="s">
+      <x:c r="A7" s="7" t="s"/>
+      <x:c r="B7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -1513,13 +1513,13 @@
       <x:c r="C8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G8" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H8" s="9" t="s"/>
+      <x:c r="F8" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G8" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="6" t="s">
@@ -1531,27 +1531,27 @@
       <x:c r="C9" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F9" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s">
+      <x:c r="F9" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s"/>
+      <x:c r="H9" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B10" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s"/>
-      <x:c r="F10" s="8" t="s"/>
-      <x:c r="G10" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="8" t="s">
+      <x:c r="A10" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B10" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="8" t="s"/>
+      <x:c r="F10" s="7" t="s"/>
+      <x:c r="G10" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -176,75 +176,75 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="10">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="10">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -569,10 +569,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
         <x:v>1</x:v>
@@ -905,26 +902,11 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-    </x:row>
+    <x:row r="11" spans="1:8"/>
+    <x:row r="12" spans="1:8"/>
+    <x:row r="13" spans="1:8"/>
+    <x:row r="14" spans="1:8"/>
+    <x:row r="15" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -957,20 +939,13 @@
       <x:c r="A2" s="9" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
-    </x:row>
+    </x:row>
+    <x:row r="4" spans="1:8"/>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="1" t="s">
         <x:v>4</x:v>
@@ -1143,10 +1118,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
@@ -1319,10 +1291,7 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:4"/>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
@@ -1407,10 +1376,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:8"/>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1" t="s">
         <x:v>4</x:v>
